--- a/src/test/resources/test_data/bookit_test_data.xlsx
+++ b/src/test/resources/test_data/bookit_test_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/studio2/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/studio2/IdeaProjects/summer-2019-online-rest-assured-testing/src/test/resources/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7BFB2F0-0E3B-C144-837C-1300090F2B81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9A3C85-3D2A-9A4C-B854-DE4628909E84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16700" windowHeight="18000" xr2:uid="{504233BF-231B-0248-9EC6-0450F9F742A9}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="16700" windowHeight="15920" xr2:uid="{504233BF-231B-0248-9EC6-0450F9F742A9}"/>
   </bookViews>
   <sheets>
     <sheet name="students" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t>first-name</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Sdet</t>
   </si>
   <si>
-    <t>someemail@email.com</t>
-  </si>
-  <si>
     <t>mksdet</t>
   </si>
   <si>
@@ -87,19 +84,25 @@
     <t>Chris</t>
   </si>
   <si>
-    <t>email1@email.com</t>
-  </si>
-  <si>
-    <t>sdet_email@email.com</t>
-  </si>
-  <si>
-    <t>pro_email@email.com</t>
-  </si>
-  <si>
     <t>QA</t>
   </si>
   <si>
     <t>Devops</t>
+  </si>
+  <si>
+    <t>123sdetemail@email.com</t>
+  </si>
+  <si>
+    <t>123323sdetemail@email.com</t>
+  </si>
+  <si>
+    <t>154sdetemail@email.com</t>
+  </si>
+  <si>
+    <t>some_email2020@email.com</t>
+  </si>
+  <si>
+    <t>12</t>
   </si>
 </sst>
 </file>
@@ -157,11 +160,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -479,8 +483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B24B2D90-01D3-4E4F-940A-77C17B4C1D14}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="261" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -525,100 +529,100 @@
         <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="G2">
-        <v>12</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="G3">
-        <v>12</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="G4">
-        <v>12</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="G5">
-        <v>12</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -626,7 +630,7 @@
     <hyperlink ref="C2" r:id="rId1" xr:uid="{00E687BA-C3FF-D740-85BB-903AAE110A92}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{773DA550-E1EF-044A-808F-69C9661FCF19}"/>
     <hyperlink ref="C4" r:id="rId3" xr:uid="{AF8D3274-1804-6F4C-9B2E-BD924450E401}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{9E23CC26-8FA4-3746-B23C-8B033A346367}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{A12301D3-E514-A641-AF1B-C28824DD11D4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
